--- a/Testing on Live application.xlsx
+++ b/Testing on Live application.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="559">
   <si>
     <t>ID</t>
   </si>
@@ -535,9 +535,6 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Leave</t>
-  </si>
-  <si>
     <t>TC_Leave_01</t>
   </si>
   <si>
@@ -559,61 +556,13 @@
     <t>TC_Leave_02</t>
   </si>
   <si>
-    <t>View Leave List</t>
-  </si>
-  <si>
-    <t>Filtered leave records displayed</t>
-  </si>
-  <si>
-    <t>Leave records displayed</t>
-  </si>
-  <si>
     <t>Medium</t>
   </si>
   <si>
-    <t>TC_Time_01</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>Submit Timesheet</t>
-  </si>
-  <si>
-    <t>Timesheet is saved and listed</t>
-  </si>
-  <si>
     <t>Timesheet listed</t>
   </si>
   <si>
-    <t>TC_Info_01</t>
-  </si>
-  <si>
-    <t>My Info</t>
-  </si>
-  <si>
     <t>Edit Contact Details</t>
-  </si>
-  <si>
-    <t>Contact details updated</t>
-  </si>
-  <si>
-    <t>Details saved</t>
-  </si>
-  <si>
-    <t>TC_Claim_01</t>
-  </si>
-  <si>
-    <t>Claim</t>
-  </si>
-  <si>
-    <t>Submit New Claim</t>
-  </si>
-  <si>
-    <t>Claim submitted and shown under 'My Claims'</t>
-  </si>
-  <si>
-    <t>Claim submitted</t>
   </si>
   <si>
     <t xml:space="preserve">1. Login
@@ -625,54 +574,6 @@
                              </t>
   </si>
   <si>
-    <t xml:space="preserve">1. Login
-2. go to leave&gt; leave list
-3. set date range
-4.click search
-</t>
-  </si>
-  <si>
-    <t>1. Login
-2. Time &gt; My Timesheets &gt; Add
-3. Fill hours
-4. Save</t>
-  </si>
-  <si>
-    <t>1. Login
-2. My Info &gt; Contact Details &gt; Edit
-3. Change details
-1. Login
-2. My Info &gt; Contact Details &gt; Edit
-3. Change details
-4. Save</t>
-  </si>
-  <si>
-    <t>1. Login
-2. Claim &gt; Apply
-3. Enter details and attach receipt
-4. Submit</t>
-  </si>
-  <si>
-    <t>TC_Info_02</t>
-  </si>
-  <si>
-    <t>Upload Profile Picture</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Login
-2. Navigate to My Info &gt; Personal Details
-3. Click on profile picture icon
-4. Select image and upload
-5. Click Save
-</t>
-  </si>
-  <si>
-    <t>Image should be uploaded and displayed as profile picture</t>
-  </si>
-  <si>
-    <t>Profile photo displays successfully</t>
-  </si>
-  <si>
     <t>Test scenario description</t>
   </si>
   <si>
@@ -864,13 +765,1112 @@
   <si>
     <t>Windows 10, Chrome v113+
 Test server: https://opensource-demo.orangehrmlive.com</t>
+  </si>
+  <si>
+    <t>Precondition</t>
+  </si>
+  <si>
+    <t>View leave history</t>
+  </si>
+  <si>
+    <t>Leave has been applied</t>
+  </si>
+  <si>
+    <t>Shows past leave applications</t>
+  </si>
+  <si>
+    <t>List displayed correctly</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>User logged in</t>
+  </si>
+  <si>
+    <t>Filter Leave Requests by Status</t>
+  </si>
+  <si>
+    <t>User applied for leave</t>
+  </si>
+  <si>
+    <t>Admin logged in</t>
+  </si>
+  <si>
+    <t>Displays specific employee leave</t>
+  </si>
+  <si>
+    <t>Add Leave Entitlement to Employee</t>
+  </si>
+  <si>
+    <t>Leave entitlements saved</t>
+  </si>
+  <si>
+    <t>View Leave Entitlements</t>
+  </si>
+  <si>
+    <t>Entitlements exist</t>
+  </si>
+  <si>
+    <t>Displays available and used days</t>
+  </si>
+  <si>
+    <t>Report is generated with proper leave stats</t>
+  </si>
+  <si>
+    <t>Configure Leave Types</t>
+  </si>
+  <si>
+    <t>Admin only</t>
+  </si>
+  <si>
+    <t>Leave types are updated accordingly</t>
+  </si>
+  <si>
+    <t>Change Leave Period Year</t>
+  </si>
+  <si>
+    <t>Leave period is updated</t>
+  </si>
+  <si>
+    <t>Add Company Holiday</t>
+  </si>
+  <si>
+    <t>View Personal Leave Requests</t>
+  </si>
+  <si>
+    <t>Employee logged in</t>
+  </si>
+  <si>
+    <t>All leaves submitted by employee are displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> List filters correctly by status</t>
+  </si>
+  <si>
+    <t>list filters properly</t>
+  </si>
+  <si>
+    <t>TC_Leave_03</t>
+  </si>
+  <si>
+    <t>TC_Leave_04</t>
+  </si>
+  <si>
+    <t>TC_Leave_05</t>
+  </si>
+  <si>
+    <t>TC_Leave_06</t>
+  </si>
+  <si>
+    <t>TC_Leave_07</t>
+  </si>
+  <si>
+    <t>admin logged in</t>
+  </si>
+  <si>
+    <t>display employee correctly</t>
+  </si>
+  <si>
+    <t>Leave -apply</t>
+  </si>
+  <si>
+    <t>Leave  - list</t>
+  </si>
+  <si>
+    <t>Leave -list</t>
+  </si>
+  <si>
+    <t>Leave -my leave</t>
+  </si>
+  <si>
+    <t>Leave - list</t>
+  </si>
+  <si>
+    <t>Search by Employee admin  User</t>
+  </si>
+  <si>
+    <t>Leave - Entitlements</t>
+  </si>
+  <si>
+    <t>1)Go to Leave
+2)Entitlements  Add
+3)Select employee
+4)Assign days</t>
+  </si>
+  <si>
+    <t>entitlements add proper</t>
+  </si>
+  <si>
+    <t>1)Go to Leave 
+2)Entitlements 
+3) View
+4)Search by employee/year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">view entitlements </t>
+  </si>
+  <si>
+    <t>leave-Entitlements</t>
+  </si>
+  <si>
+    <t>leave-Reports</t>
+  </si>
+  <si>
+    <t>Generate</t>
+  </si>
+  <si>
+    <t>logged in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)Go to Leave 
+2)Reports 
+3)Leave Entitlement and Usage
+4)Search by department or employee
+</t>
+  </si>
+  <si>
+    <t>report generate properly</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>leave-Configure</t>
+  </si>
+  <si>
+    <t>update leave types</t>
+  </si>
+  <si>
+    <t>leave period is updated sccessfully</t>
+  </si>
+  <si>
+    <t>Holiday added to calendar</t>
+  </si>
+  <si>
+    <t>holiday add successfully</t>
+  </si>
+  <si>
+    <t>TC_Leave_08</t>
+  </si>
+  <si>
+    <t>TC_Leave_09</t>
+  </si>
+  <si>
+    <t>TC_Leave_10</t>
+  </si>
+  <si>
+    <t>TC_Leave_11</t>
+  </si>
+  <si>
+    <t>TC_leave_12</t>
+  </si>
+  <si>
+    <t>Add work week</t>
+  </si>
+  <si>
+    <t xml:space="preserve">admin </t>
+  </si>
+  <si>
+    <t>1)Go to Leave 
+2)configure
+3)work week</t>
+  </si>
+  <si>
+    <t>1)Go to Leave 
+2)Configure 
+3) Holidays
+4)click add
+5)fill holiday name and date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">work week added </t>
+  </si>
+  <si>
+    <t>work week added properly</t>
+  </si>
+  <si>
+    <t>Timesheet</t>
+  </si>
+  <si>
+    <t>Add New Timesheet for Current Week</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Go to Time 
+2) imesheets
+3)click add
+4)seletct employee&amp;start date
+5)submit
+</t>
+  </si>
+  <si>
+    <t>Blank timesheet form opens for entry</t>
+  </si>
+  <si>
+    <t>TC_time_13</t>
+  </si>
+  <si>
+    <t>TC_time_14</t>
+  </si>
+  <si>
+    <t>TC_time_15</t>
+  </si>
+  <si>
+    <t>TC_time_16</t>
+  </si>
+  <si>
+    <t>Fill and Submit Timesheet</t>
+  </si>
+  <si>
+    <t>Timesheet added</t>
+  </si>
+  <si>
+    <t>Timesheet submitted with confirmation</t>
+  </si>
+  <si>
+    <t>Edit Timesheet (before submission)</t>
+  </si>
+  <si>
+    <t>Timesheet in draft mode</t>
+  </si>
+  <si>
+    <t>Timesheet updates saved</t>
+  </si>
+  <si>
+    <t>Submit Timesheet with Missing Hours</t>
+  </si>
+  <si>
+    <t>Timesheet not fully filled</t>
+  </si>
+  <si>
+    <t>Validation error or warning shown</t>
+  </si>
+  <si>
+    <t>Approve Timesheet (as Admin)</t>
+  </si>
+  <si>
+    <t>Timesheet submitted by user</t>
+  </si>
+  <si>
+    <t>Status changes to "Approved"</t>
+  </si>
+  <si>
+    <t>Employee Timesheets</t>
+  </si>
+  <si>
+    <t>View Submitted Timesheets</t>
+  </si>
+  <si>
+    <t>Timesheet history exists</t>
+  </si>
+  <si>
+    <t>List of submitted timesheets shown</t>
+  </si>
+  <si>
+    <t>Attendance</t>
+  </si>
+  <si>
+    <t>Record Punch In</t>
+  </si>
+  <si>
+    <t>Punch-in time is recorded</t>
+  </si>
+  <si>
+    <t>Record Punch Out</t>
+  </si>
+  <si>
+    <t>After Punch In</t>
+  </si>
+  <si>
+    <t>Punch-out time is saved</t>
+  </si>
+  <si>
+    <t>View Attendance Record</t>
+  </si>
+  <si>
+    <t>Punch In and Out done</t>
+  </si>
+  <si>
+    <t>Daily attendance displayed</t>
+  </si>
+  <si>
+    <t>Project Reports</t>
+  </si>
+  <si>
+    <t>View Project Time Report</t>
+  </si>
+  <si>
+    <t>Time recorded against project</t>
+  </si>
+  <si>
+    <t>Time allocation and utilization shown</t>
+  </si>
+  <si>
+    <t>Project Activity</t>
+  </si>
+  <si>
+    <t>Assign Project Activities in Timesheet</t>
+  </si>
+  <si>
+    <t>Project created</t>
+  </si>
+  <si>
+    <t>While filling timesheet</t>
+  </si>
+  <si>
+    <t>Activities list is shown correctly</t>
+  </si>
+  <si>
+    <t>Employee Configuration</t>
+  </si>
+  <si>
+    <t>Restrict Timesheet Access (as Admin)</t>
+  </si>
+  <si>
+    <t>User cannot access timesheet if permission removed</t>
+  </si>
+  <si>
+    <t>Timesheet Mobile View</t>
+  </si>
+  <si>
+    <t>Responsive Check of Timesheet</t>
+  </si>
+  <si>
+    <t>Responsive test environment</t>
+  </si>
+  <si>
+    <t>All inputs and buttons visible and responsive</t>
+  </si>
+  <si>
+    <t>Validation</t>
+  </si>
+  <si>
+    <t>Submit Timesheet Without Selecting Project</t>
+  </si>
+  <si>
+    <t>No project/activity selected</t>
+  </si>
+  <si>
+    <t>Try submitting a timesheet with empty project fields</t>
+  </si>
+  <si>
+    <t>1)Open timesheet
+2)add project and activity
+3)fill time for a days
+4)click submit</t>
+  </si>
+  <si>
+    <t>timesheet submitted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Go to Time 
+2) Timesheets
+3)click edit on draft
+4)change value
+5)save
+</t>
+  </si>
+  <si>
+    <t>timesheet update successfully</t>
+  </si>
+  <si>
+    <t>error message show</t>
+  </si>
+  <si>
+    <t>TC_time_17</t>
+  </si>
+  <si>
+    <t>Try submitting a timesheet 
+with missing day/hour</t>
+  </si>
+  <si>
+    <t>1) go to time
+2)timesheet
+3)search user
+4)click approve</t>
+  </si>
+  <si>
+    <t>status change successfully</t>
+  </si>
+  <si>
+    <t>1)go to Time 
+2)Timesheets
+3)search by name/date</t>
+  </si>
+  <si>
+    <t>submitted timesheet are show</t>
+  </si>
+  <si>
+    <t>1)Go to Time 
+ 2)Attendance
+3)punch in
+4)click punch in</t>
+  </si>
+  <si>
+    <t>punch in time record suceesfully</t>
+  </si>
+  <si>
+    <r>
+      <t>1)Go to Leave
+2) Configure 
+3) Leave Types
+4)Add/edit/delete types</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1)Go to Time 
+ 2)Attendance
+3)punch out
+4)click punch out
+</t>
+  </si>
+  <si>
+    <t>1)go to attendance
+2)my record</t>
+  </si>
+  <si>
+    <t>punch out time save successfully</t>
+  </si>
+  <si>
+    <t>daily attendence disply properly</t>
+  </si>
+  <si>
+    <t>1)Go to Time 
+2) Reports 
+3)project report
+4)record by project</t>
+  </si>
+  <si>
+    <t>time allocation and utilization show successfully</t>
+  </si>
+  <si>
+    <t>activity list shown</t>
+  </si>
+  <si>
+    <t>1)Go to Admin 
+2)User management
+3)change access for user</t>
+  </si>
+  <si>
+    <t>User cannot access timesheet if permission removed properly work</t>
+  </si>
+  <si>
+    <t>1)Open OrangeHRM on
+2)go to timesheet</t>
+  </si>
+  <si>
+    <t>All inputs and buttons visible and responsive and  works</t>
+  </si>
+  <si>
+    <t>Error message shown - Project required</t>
+  </si>
+  <si>
+    <t xml:space="preserve">error message show </t>
+  </si>
+  <si>
+    <t>1)Go to Leave 
+2)Configure 
+3)Leave Period
+4)Modify start date</t>
+  </si>
+  <si>
+    <t>1)Go to Leave 
+2)My Leave</t>
+  </si>
+  <si>
+    <t>1)Go to Leave 
+2) Leave List</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1)Go to Leave List 
+2)Search using employee name
+</t>
+  </si>
+  <si>
+    <t>1)Go to Leave List 
+2)filter by pending/rejected /approved.</t>
+  </si>
+  <si>
+    <t>TC_time_18</t>
+  </si>
+  <si>
+    <t>TC_time_19</t>
+  </si>
+  <si>
+    <t>TC_time_20</t>
+  </si>
+  <si>
+    <t>TC_time_21</t>
+  </si>
+  <si>
+    <t>TC_time_22</t>
+  </si>
+  <si>
+    <t>TC_time_23</t>
+  </si>
+  <si>
+    <t>TC_time_24</t>
+  </si>
+  <si>
+    <t>TC_time_25</t>
+  </si>
+  <si>
+    <t>TC_time_26</t>
+  </si>
+  <si>
+    <t>View Personal Information</t>
+  </si>
+  <si>
+    <t>Verify user can view personal details</t>
+  </si>
+  <si>
+    <t>Edit Personal Information</t>
+  </si>
+  <si>
+    <t>Verify edit and save of personal details</t>
+  </si>
+  <si>
+    <t>Required Fields Validation</t>
+  </si>
+  <si>
+    <t>Ensure required fields cannot be empty</t>
+  </si>
+  <si>
+    <t>1. Edit personal info
+2. Clear mandatory fields (e.g. First Name)
+3. Click Save</t>
+  </si>
+  <si>
+    <t>View Contact Details</t>
+  </si>
+  <si>
+    <t>Verify contact information is visible</t>
+  </si>
+  <si>
+    <t>Validate contact info update</t>
+  </si>
+  <si>
+    <t>1. Click Edit
+2. Update phone or email
+3. Click Save</t>
+  </si>
+  <si>
+    <t>Add Emergency Contact</t>
+  </si>
+  <si>
+    <t>Ensure user can add emergency contact</t>
+  </si>
+  <si>
+    <t>1. Go to Emergency Contacts
+2. Click Add
+3. Fill name, relation, phone
+4. Save</t>
+  </si>
+  <si>
+    <t>View Emergency Contacts</t>
+  </si>
+  <si>
+    <t>Verify emergency contacts list</t>
+  </si>
+  <si>
+    <t>1. Go to Emergency Contacts</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Add Dependent</t>
+  </si>
+  <si>
+    <t>Ensure dependent can be added</t>
+  </si>
+  <si>
+    <t>1. Go to Dependents
+2. Click Add
+3. Fill required info
+4. Save</t>
+  </si>
+  <si>
+    <t>View Job Details</t>
+  </si>
+  <si>
+    <t>Verify user job info is accessible</t>
+  </si>
+  <si>
+    <t>1. Navigate to My Info &gt; Job</t>
+  </si>
+  <si>
+    <t>View Salary Info</t>
+  </si>
+  <si>
+    <t>Ensure salary details are viewable</t>
+  </si>
+  <si>
+    <t>1. Go to My Info &gt; Salary</t>
+  </si>
+  <si>
+    <t>Add Work Experience</t>
+  </si>
+  <si>
+    <t>Validate adding past work experience</t>
+  </si>
+  <si>
+    <t>1. Go to Qualifications &gt; Work Experience
+2. Click Add
+3. Fill company, job title, date range
+4. Click Save</t>
+  </si>
+  <si>
+    <t>Experience added to list</t>
+  </si>
+  <si>
+    <t>Upload Attachment</t>
+  </si>
+  <si>
+    <t>Check attachment functionality</t>
+  </si>
+  <si>
+    <t>1. Go to any My Info section
+2. Click Attachments &gt; Add
+3. Upload document
+4. Click Save</t>
+  </si>
+  <si>
+    <t>File appears in attachments</t>
+  </si>
+  <si>
+    <t>Profile Image Upload</t>
+  </si>
+  <si>
+    <t>Ensure user can upload profile image</t>
+  </si>
+  <si>
+    <t>1. Click on profile image area
+2. Upload new image</t>
+  </si>
+  <si>
+    <t>Profile picture updated</t>
+  </si>
+  <si>
+    <t>TC_myInfo_28</t>
+  </si>
+  <si>
+    <t>TC_myInfo_29</t>
+  </si>
+  <si>
+    <t>TC_myInfo_30</t>
+  </si>
+  <si>
+    <t>TC_myInfo_31</t>
+  </si>
+  <si>
+    <t>TC_myInfo_32</t>
+  </si>
+  <si>
+    <t>TC_myInfo_33</t>
+  </si>
+  <si>
+    <t>TC_myInfo_34</t>
+  </si>
+  <si>
+    <t>TC_myInfo_35</t>
+  </si>
+  <si>
+    <t>TC_myInfo_36</t>
+  </si>
+  <si>
+    <t>TC_myInfo_37</t>
+  </si>
+  <si>
+    <t>TC_myInfo_38</t>
+  </si>
+  <si>
+    <t>TC_myInfo_39</t>
+  </si>
+  <si>
+    <t>TC_myInfo_27</t>
+  </si>
+  <si>
+    <t>1. Go to My Info 
+2.Personal Details
+3. Click Edit
+4. Change Gender or Nickname
+5 Click Save</t>
+  </si>
+  <si>
+    <t>User details (Name, DOB, Gender, etc.) are visible</t>
+  </si>
+  <si>
+    <t>Changes saved and updated</t>
+  </si>
+  <si>
+    <t>System shows error on required fields</t>
+  </si>
+  <si>
+    <t>Phone, email, and address are displayed</t>
+  </si>
+  <si>
+    <t>Updated contact info is saved</t>
+  </si>
+  <si>
+    <t>Contact added to the list</t>
+  </si>
+  <si>
+    <t>All emergency contacts are visible</t>
+  </si>
+  <si>
+    <t>Dependent saved and shown</t>
+  </si>
+  <si>
+    <t>Job title, status, and dates are displayed</t>
+  </si>
+  <si>
+    <t>Salary structure and components visible</t>
+  </si>
+  <si>
+    <t>As expected</t>
+  </si>
+  <si>
+    <t>Tc_claim_40</t>
+  </si>
+  <si>
+    <t>Tc_claim_41</t>
+  </si>
+  <si>
+    <t>Tc_claim_42</t>
+  </si>
+  <si>
+    <t>Tc_claim_43</t>
+  </si>
+  <si>
+    <t>Tc_claim_44</t>
+  </si>
+  <si>
+    <t>Tc_claim_45</t>
+  </si>
+  <si>
+    <t>Tc_claim_46</t>
+  </si>
+  <si>
+    <t>Tc_claim_47</t>
+  </si>
+  <si>
+    <t>Tc_claim_48</t>
+  </si>
+  <si>
+    <t>Tc_claim_49</t>
+  </si>
+  <si>
+    <t>Tc_claim_50</t>
+  </si>
+  <si>
+    <t>Tc_claim_51</t>
+  </si>
+  <si>
+    <t>Tc_claim_52</t>
+  </si>
+  <si>
+    <t>1) Login
+2) Navigate to My Info 
+3)Personal Details</t>
+  </si>
+  <si>
+    <t>1. Go to My Info  
+2. Contact Details</t>
+  </si>
+  <si>
+    <t>Verify user can successfully add a new claim</t>
+  </si>
+  <si>
+    <t>User must be logged in with ESS role</t>
+  </si>
+  <si>
+    <t>1. Login to OrangeHRM demo site
+2. Navigate to My Info &gt; Claim
+3. Click Add
+4. Select Event type (e.g., Travel)
+5. Fill in claim details
+6. Click Save</t>
+  </si>
+  <si>
+    <t>Claim appears in the list with status 'Initiated'</t>
+  </si>
+  <si>
+    <t>Verify user can edit an existing claim</t>
+  </si>
+  <si>
+    <t>A claim must exist in 'Initiated' status</t>
+  </si>
+  <si>
+    <t>1. Login
+2. Go to Claim section
+3. Click on an existing claim
+4. Click Edit
+5. Update description or amount
+6. Click Save</t>
+  </si>
+  <si>
+    <t>Edited information should be reflected in the claim list</t>
+  </si>
+  <si>
+    <t>Verify user can delete a claim</t>
+  </si>
+  <si>
+    <t>At least one claim in list with 'Initiated' status</t>
+  </si>
+  <si>
+    <t>1. Login
+2. Navigate to Claim section
+3. Select a claim
+4. Click Delete icon
+5. Confirm deletion</t>
+  </si>
+  <si>
+    <t>Claim is removed from the list</t>
+  </si>
+  <si>
+    <t>Verify user can submit a claim for approval</t>
+  </si>
+  <si>
+    <t>A claim in 'Initiated' status must exist</t>
+  </si>
+  <si>
+    <t>1. Login
+2. Go to Claim section
+3. Open a claim
+4. Click Submit</t>
+  </si>
+  <si>
+    <t>Claim status changes to 'Submitted'</t>
+  </si>
+  <si>
+    <t>Verify Admin/Manager can approve a submitted claim</t>
+  </si>
+  <si>
+    <t>User with Admin/Manager role logged in</t>
+  </si>
+  <si>
+    <t>1. Login as Admin
+2. Navigate to Claim &gt; Employee Claims
+3. Select a submitted claim
+4. Click Approve</t>
+  </si>
+  <si>
+    <t>Status updates to 'Approved'</t>
+  </si>
+  <si>
+    <t>Verify validation for mandatory fields during claim submission</t>
+  </si>
+  <si>
+    <t>User logged in and on Add Claim form</t>
+  </si>
+  <si>
+    <t>1. Login
+2. Navigate to My Info &gt; Claim &gt; Add
+3. Leave mandatory fields empty
+4. Click Save</t>
+  </si>
+  <si>
+    <t>System displays error messages for required fields</t>
+  </si>
+  <si>
+    <t>Verify claim cannot be edited after submission</t>
+  </si>
+  <si>
+    <t>Claim in 'Submitted' status exists</t>
+  </si>
+  <si>
+    <t>1. Login
+2. Navigate to Claim section
+3. Open a submitted claim
+4. Check for Edit option</t>
+  </si>
+  <si>
+    <t>Edit button is disabled or not visible</t>
+  </si>
+  <si>
+    <t>Verify rejected claim status is shown correctly</t>
+  </si>
+  <si>
+    <t>Claim has been rejected by admin/manager</t>
+  </si>
+  <si>
+    <t>1. Login as Employee
+2. Navigate to Claim section
+3. Locate previously rejected claim</t>
+  </si>
+  <si>
+    <t>Status is displayed as 'Rejected'</t>
+  </si>
+  <si>
+    <t>Verify attachment can be uploaded with claim</t>
+  </si>
+  <si>
+    <t>1. Login
+2. Go to My Info &gt; Claim &gt; Add
+3. Fill form and upload a file attachment
+4. Click Save</t>
+  </si>
+  <si>
+    <t>Attachment is uploaded and visible in the claim detail</t>
+  </si>
+  <si>
+    <t>Verify navigation to claim section from dashboard</t>
+  </si>
+  <si>
+    <t>User logged in and on dashboard</t>
+  </si>
+  <si>
+    <t>1. Login
+2. From dashboard, click on Claim shortcut or menu</t>
+  </si>
+  <si>
+    <t>User is redirected to Claim section</t>
+  </si>
+  <si>
+    <t>Verify visibility and layout of the Claim landing page</t>
+  </si>
+  <si>
+    <t>User is logged in and has access to Claim module</t>
+  </si>
+  <si>
+    <t>1. Login
+2. Navigate to My Info &gt; Claim
+3. Observe the layout, headers, and sections</t>
+  </si>
+  <si>
+    <t>Page loads correctly with Add button, search filters, and table headers visible</t>
+  </si>
+  <si>
+    <t>Verify claim search functionality by Event Name</t>
+  </si>
+  <si>
+    <t>Multiple claims exist with different Event Names</t>
+  </si>
+  <si>
+    <t>1. Login
+2. Go to My Info &gt; Claim
+3. Enter event name in search field
+4. Click search</t>
+  </si>
+  <si>
+    <t>Only claims matching search term are displayed</t>
+  </si>
+  <si>
+    <t>Verify error when entering invalid characters in claim amount</t>
+  </si>
+  <si>
+    <t>User is on Add Claim form</t>
+  </si>
+  <si>
+    <t>1. Login
+2. Navigate to Claim &gt; Add
+3. Enter text characters in amount field
+4. Click Save</t>
+  </si>
+  <si>
+    <t>Error is shown and form is not submitted</t>
+  </si>
+  <si>
+    <t>Verify employee cannot approve or reject their own claim</t>
+  </si>
+  <si>
+    <t>User has ESS role only</t>
+  </si>
+  <si>
+    <t>1. Login as employee
+2. Submit a claim
+3. Try to access approval options</t>
+  </si>
+  <si>
+    <t>Approval buttons are not visible for the employee</t>
+  </si>
+  <si>
+    <t>Verify claim history shows proper status transition logs</t>
+  </si>
+  <si>
+    <t>1. Login
+2. Go to Claim section
+3. Open an approved claim
+4. Click on history or log tab</t>
+  </si>
+  <si>
+    <t>All status changes and timestamps are visible</t>
+  </si>
+  <si>
+    <t>Claim</t>
+  </si>
+  <si>
+    <t>Tc_claim_53</t>
+  </si>
+  <si>
+    <t>Tc_claim_54</t>
+  </si>
+  <si>
+    <t>A claim has gone through Initiated 
+ Submitted &gt; Approved</t>
+  </si>
+  <si>
+    <t>As expectad</t>
+  </si>
+  <si>
+    <t>User must be logged in and have access to My Info</t>
+  </si>
+  <si>
+    <t>User must have permission to edit personal info</t>
+  </si>
+  <si>
+    <t>User must be on the Personal Details edit page</t>
+  </si>
+  <si>
+    <t>User must be on the Contact Details edit screen</t>
+  </si>
+  <si>
+    <t>User must be on Emergency Contacts section</t>
+  </si>
+  <si>
+    <t>Emergency contacts must exist</t>
+  </si>
+  <si>
+    <t>User must be on Dependents section</t>
+  </si>
+  <si>
+    <t>User must have job info set and proper access</t>
+  </si>
+  <si>
+    <t>User must have salary info and access permission</t>
+  </si>
+  <si>
+    <t>User must be on Qualifications &gt; Work Experience</t>
+  </si>
+  <si>
+    <t>User must be on Personal Details &gt; Attachments</t>
+  </si>
+  <si>
+    <t>User must be on the Personal Details section</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -934,6 +1934,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -956,9 +1971,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -980,17 +1994,17 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1002,8 +2016,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1288,7 +2306,7 @@
   <dimension ref="A2:C88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1299,25 +2317,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1333,16 +2351,16 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -1675,16 +2693,16 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="15" t="s">
+      <c r="A40" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B40" s="16"/>
-      <c r="C40" s="16"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
+      <c r="A41" s="3"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
@@ -1797,11 +2815,11 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="15" t="s">
+      <c r="A53" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="B53" s="16"/>
-      <c r="C53" s="16"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="15"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
@@ -1837,11 +2855,11 @@
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="15" t="s">
+      <c r="A59" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="B59" s="16"/>
-      <c r="C59" s="16"/>
+      <c r="B59" s="15"/>
+      <c r="C59" s="15"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
@@ -1921,16 +2939,16 @@
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="15" t="s">
+      <c r="A69" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="B69" s="16"/>
-      <c r="C69" s="16"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="15"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="4"/>
-      <c r="B70" s="5"/>
-      <c r="C70" s="5"/>
+      <c r="A70" s="3"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
@@ -1977,16 +2995,16 @@
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="15" t="s">
+      <c r="A76" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="B76" s="16"/>
-      <c r="C76" s="16"/>
+      <c r="B76" s="15"/>
+      <c r="C76" s="15"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="4"/>
-      <c r="B77" s="5"/>
-      <c r="C77" s="5"/>
+      <c r="A77" s="3"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
@@ -2000,11 +3018,11 @@
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="15" t="s">
+      <c r="A80" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="B80" s="16"/>
-      <c r="C80" s="16"/>
+      <c r="B80" s="15"/>
+      <c r="C80" s="15"/>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
@@ -2040,11 +3058,11 @@
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="15" t="s">
+      <c r="A86" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="B86" s="16"/>
-      <c r="C86" s="16"/>
+      <c r="B86" s="15"/>
+      <c r="C86" s="15"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
@@ -2089,246 +3107,246 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="54" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:3" s="19" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="C1" s="10" t="s">
+      <c r="C12" s="8" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="B7" s="9" t="s">
+      <c r="C20" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="C7" s="9" t="s">
+    </row>
+    <row r="21" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="B8" s="9" t="s">
+      <c r="C21" s="8" t="s">
         <v>223</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -2338,250 +3356,1614 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19" style="12" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" style="12" customWidth="1"/>
-    <col min="3" max="3" width="27.42578125" style="12" customWidth="1"/>
-    <col min="4" max="4" width="28.42578125" style="12" customWidth="1"/>
-    <col min="5" max="5" width="33" style="12" customWidth="1"/>
-    <col min="6" max="6" width="25.28515625" style="12" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" style="14" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="14"/>
-    <col min="9" max="16384" width="9.140625" style="12"/>
+    <col min="1" max="1" width="19" style="13" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="57.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.85546875" style="13" customWidth="1"/>
+    <col min="5" max="5" width="33" style="13" customWidth="1"/>
+    <col min="6" max="6" width="56.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" style="12" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="12"/>
+    <col min="10" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="17" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:9" s="16" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>159</v>
       </c>
       <c r="D1" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="F1" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="G1" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="H1" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="I1" s="16" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="150" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="C2" s="11" t="s">
+      <c r="D2" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="F2" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="E2" s="11" t="s">
+      <c r="G2" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="H2" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="I2" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="H2" s="9" t="s">
+    </row>
+    <row r="3" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="93.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+      <c r="B3" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>321</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>374</v>
+      </c>
+      <c r="H19" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="I19" s="18" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>397</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>376</v>
+      </c>
+      <c r="H20" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="H21" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="I22" s="18" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="I23" s="18" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="I24" s="18" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>385</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="I25" s="18" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>388</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="I26" s="18" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>360</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>389</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="I27" s="18" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>405</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>406</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>547</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>458</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>468</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="I28" s="18" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
+        <v>444</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>407</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>548</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>468</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="I29" s="18" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>549</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>460</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>468</v>
+      </c>
+      <c r="H30" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="E3" s="11" t="s">
+      <c r="I30" s="18" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>412</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>413</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>547</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>461</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>468</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="I31" s="10" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
+        <v>447</v>
+      </c>
+      <c r="B32" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="F3" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="93.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="G4" s="9" t="s">
+      <c r="C32" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>550</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>415</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>468</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="I32" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="H4" s="9" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="168.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="G5" s="9" t="s">
+    </row>
+    <row r="33" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>417</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>551</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>463</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>546</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="I33" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="H5" s="9" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="206.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="G7" s="9" t="s">
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>419</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>420</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>552</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>421</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>464</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>468</v>
+      </c>
+      <c r="H34" s="13" t="s">
+        <v>422</v>
+      </c>
+      <c r="I34" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="H7" s="9" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-    </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-    </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D21" s="11"/>
-    </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D22" s="11"/>
+    </row>
+    <row r="35" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="A35" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>423</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>424</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>553</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>425</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>465</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>468</v>
+      </c>
+      <c r="H35" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="I35" s="18" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="10" t="s">
+        <v>451</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>426</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>427</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>554</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>428</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="H36" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="I36" s="18" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>429</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>430</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>555</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>431</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>467</v>
+      </c>
+      <c r="G37" s="13" t="s">
+        <v>468</v>
+      </c>
+      <c r="H37" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="I37" s="18" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>433</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>556</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>434</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>435</v>
+      </c>
+      <c r="G38" s="13" t="s">
+        <v>468</v>
+      </c>
+      <c r="H38" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="I38" s="18" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="A39" s="10" t="s">
+        <v>454</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>436</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>437</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>557</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>438</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>439</v>
+      </c>
+      <c r="H39" s="13" t="s">
+        <v>422</v>
+      </c>
+      <c r="I39" s="18" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="10" t="s">
+        <v>455</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>440</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>441</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>558</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>442</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>443</v>
+      </c>
+      <c r="G40" s="13" t="s">
+        <v>468</v>
+      </c>
+      <c r="H40" s="13" t="s">
+        <v>422</v>
+      </c>
+      <c r="I40" s="18" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="13" t="s">
+        <v>469</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>542</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>484</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>485</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>486</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>487</v>
+      </c>
+      <c r="G41" s="13" t="s">
+        <v>468</v>
+      </c>
+      <c r="H41" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="I41" s="18" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="13" t="s">
+        <v>470</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>542</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>488</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>489</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>490</v>
+      </c>
+      <c r="F42" s="13" t="s">
+        <v>491</v>
+      </c>
+      <c r="G42" s="13" t="s">
+        <v>468</v>
+      </c>
+      <c r="H42" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="I42" s="18" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="13" t="s">
+        <v>471</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>542</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>492</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>493</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>494</v>
+      </c>
+      <c r="F43" s="13" t="s">
+        <v>495</v>
+      </c>
+      <c r="G43" s="13" t="s">
+        <v>468</v>
+      </c>
+      <c r="H43" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="I43" s="18" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="A44" s="13" t="s">
+        <v>472</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>542</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>496</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>497</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>498</v>
+      </c>
+      <c r="F44" s="13" t="s">
+        <v>499</v>
+      </c>
+      <c r="G44" s="13" t="s">
+        <v>468</v>
+      </c>
+      <c r="H44" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="I44" s="18" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="13" t="s">
+        <v>473</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>542</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>500</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>501</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="F45" s="13" t="s">
+        <v>503</v>
+      </c>
+      <c r="G45" s="13" t="s">
+        <v>468</v>
+      </c>
+      <c r="H45" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="I45" s="18" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="13" t="s">
+        <v>474</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>542</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>504</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>505</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="F46" s="13" t="s">
+        <v>507</v>
+      </c>
+      <c r="G46" s="13" t="s">
+        <v>468</v>
+      </c>
+      <c r="H46" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="I46" s="18" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="A47" s="13" t="s">
+        <v>475</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>542</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>508</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>509</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="F47" s="13" t="s">
+        <v>511</v>
+      </c>
+      <c r="G47" s="13" t="s">
+        <v>468</v>
+      </c>
+      <c r="H47" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="I47" s="18" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="A48" s="13" t="s">
+        <v>476</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>542</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>512</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>513</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="F48" s="13" t="s">
+        <v>515</v>
+      </c>
+      <c r="G48" s="13" t="s">
+        <v>468</v>
+      </c>
+      <c r="H48" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="I48" s="18" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="13" t="s">
+        <v>477</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>542</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>516</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>517</v>
+      </c>
+      <c r="F49" s="13" t="s">
+        <v>518</v>
+      </c>
+      <c r="G49" s="13" t="s">
+        <v>468</v>
+      </c>
+      <c r="H49" s="13" t="s">
+        <v>422</v>
+      </c>
+      <c r="I49" s="18" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A50" s="13" t="s">
+        <v>478</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>542</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>519</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>520</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>521</v>
+      </c>
+      <c r="F50" s="13" t="s">
+        <v>522</v>
+      </c>
+      <c r="G50" s="13" t="s">
+        <v>468</v>
+      </c>
+      <c r="H50" s="13" t="s">
+        <v>422</v>
+      </c>
+      <c r="I50" s="18" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="A51" s="13" t="s">
+        <v>479</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>542</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>523</v>
+      </c>
+      <c r="D51" s="13" t="s">
+        <v>524</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>525</v>
+      </c>
+      <c r="F51" s="13" t="s">
+        <v>526</v>
+      </c>
+      <c r="G51" s="13" t="s">
+        <v>468</v>
+      </c>
+      <c r="H51" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="I51" s="18" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="13" t="s">
+        <v>480</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>542</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>527</v>
+      </c>
+      <c r="D52" s="13" t="s">
+        <v>528</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>529</v>
+      </c>
+      <c r="F52" s="13" t="s">
+        <v>530</v>
+      </c>
+      <c r="G52" s="13" t="s">
+        <v>468</v>
+      </c>
+      <c r="H52" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="I52" s="18" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="13" t="s">
+        <v>481</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>542</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>531</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>532</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>533</v>
+      </c>
+      <c r="F53" s="13" t="s">
+        <v>534</v>
+      </c>
+      <c r="G53" s="13" t="s">
+        <v>468</v>
+      </c>
+      <c r="H53" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="I53" s="18" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A54" s="13" t="s">
+        <v>543</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>542</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>535</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="F54" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="G54" s="13" t="s">
+        <v>468</v>
+      </c>
+      <c r="H54" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="I54" s="18" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="A55" s="13" t="s">
+        <v>544</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>542</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>539</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>545</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>540</v>
+      </c>
+      <c r="F55" s="13" t="s">
+        <v>541</v>
+      </c>
+      <c r="G55" s="13" t="s">
+        <v>468</v>
+      </c>
+      <c r="H55" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="I55" s="18" t="s">
+        <v>171</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2599,120 +4981,120 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="116.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="1" width="35.28515625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="116.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="56.25" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>266</v>
+      <c r="B9" s="7" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>155</v>
       </c>
     </row>
